--- a/DragPrediction/NL2VP DragX/1L/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1L/n/8/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.235294118E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>9.284717649957025E-2</v>
+        <v>0.14042507298129792</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>8.2803201035691441</v>
+        <v>12.523423960636945</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.90641767904806614</v>
+        <v>1.3708954168622727</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6385355958756205E-2</v>
+        <v>0.14577633004165039</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.87629946107320666</v>
+        <v>1.3253436497904345</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.6376469610855386E-2</v>
+        <v>0.14576289004164655</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.81480242969944217</v>
+        <v>1.2323335503520954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.10157281871905786</v>
+        <v>0.15362201651448024</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.72868197353282238</v>
+        <v>1.1020821867854689</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.1068564549596281</v>
+        <v>0.16161315886970459</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.4447896701283347</v>
+        <v>0.67271428430985114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.10247803373546281</v>
+        <v>0.15499109298545966</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.2572226663258802</v>
+        <v>0.38903188069938727</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.12691740168094215</v>
+        <v>0.19195398358425578</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-9.2970711437070253E-2</v>
+        <v>-0.14061191121664543</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>6.7601200962508268E-2</v>
+        <v>0.10224224297038853</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.45977652036587607</v>
+        <v>0.69538088137515086</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.6138204311483465E-2</v>
+        <v>0.11515388297407757</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.42288633355864463</v>
+        <v>0.6395869695945039</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>8.4000719153107445E-2</v>
+        <v>0.12704540474218104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.34736997757783883</v>
+        <v>0.52537359015010676</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.10000027001217769</v>
+        <v>0.15124364298438894</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.26493844208075212</v>
+        <v>0.40070146952625091</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.10749694175161985</v>
+        <v>0.16258185181115786</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.20702349917933058</v>
+        <v>0.31310903656004796</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.11259144906572727</v>
+        <v>0.17028694946041811</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.14686845335537604</v>
+        <v>0.22212859947523003</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.10775153398545867</v>
+        <v>0.16296690534067962</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-4.161605770023967E-2</v>
+        <v>-6.2941471782689162E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>6.603176411091323E-2</v>
+        <v>9.9868575910886825E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>8.9996406689628102E-3</v>
+        <v>1.3611347650947781E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>6.7479185198454542E-2</v>
+        <v>0.10205770238210052</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2.7794258311611572E-2</v>
+        <v>4.2036935306128204E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>7.0741544833549594E-2</v>
+        <v>0.10699180061880438</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-4.3212480299504134E-3</v>
+        <v>-6.5355952959849596E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>7.5453432796772732E-2</v>
+        <v>0.11411821238554638</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>1.7259697065161159E-2</v>
+        <v>2.610412412510538E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>6.4222371363198347E-2</v>
+        <v>9.7131991792457878E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.10834324387518596</v>
+        <v>0.16386182651740591</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>9.8451766717264466E-2</v>
+        <v>0.14890163651313154</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.5401674480107439E-2</v>
+        <v>3.8418314128623718E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0.18401081478709091</v>
+        <v>0.27830390831480956</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-0.16152923669871075</v>
+        <v>-0.24430204242274176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>5.1476555154495875E-2</v>
+        <v>7.7854807081067762E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-4.0170588668900831E-2</v>
+        <v>-6.0755297664417486E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>5.4336660530293387E-2</v>
+        <v>8.2180522964656624E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-3.6332429627268598E-2</v>
+        <v>-5.4950341780405983E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>5.7758084159293392E-2</v>
+        <v>8.7355194730840982E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-4.0209360262177689E-2</v>
+        <v>-6.0813937076198941E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>6.1666280363838845E-2</v>
+        <v>9.326607708547098E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-5.4834851409483472E-2</v>
+        <v>-8.2934002964871897E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>6.2229297477669421E-2</v>
+        <v>9.4117602379831924E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.10289628015394214</v>
+        <v>-0.15562366239740508</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>6.6343006812619842E-2</v>
+        <v>0.10033930944043309</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-0.1301880105912025</v>
+        <v>-0.19690055829155143</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.10605502562592149</v>
+        <v>0.16040105122229947</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-9.3323151509008259E-2</v>
+        <v>-0.14114495298150359</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>5.1381141260950412E-2</v>
+        <v>7.7710500022203005E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0.17196732226372313</v>
+        <v>0.2600889406625464</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>3.2789831496929753E-2</v>
+        <v>4.9592401778875146E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>0.14109278460539257</v>
+        <v>0.21339329123744011</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>4.2056846692438019E-2</v>
+        <v>6.3608135312291397E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>0.13003152755863637</v>
+        <v>0.19666388829148382</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>4.9961057127842975E-2</v>
+        <v>7.5562718845118768E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>0.11791417543594215</v>
+        <v>0.17833721299212996</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>4.5403781816975207E-2</v>
+        <v>6.867014825491416E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E113" si="1">A67*$E$1</f>
-        <v>9.2669449541553719E-2</v>
+        <v>0.14015627298122113</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>4.2079634294132237E-2</v>
+        <v>6.3642600018183601E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>1.7971617679524796E-2</v>
+        <v>2.7180855890118902E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>5.9223367786227277E-2</v>
+        <v>8.9571337084415351E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-7.0669139066876038E-2</v>
+        <v>-0.10688229179524368</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>6.0633275090764466E-2</v>
+        <v>9.1703726496789303E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>6.5937893893611571E-2</v>
+        <v>9.9726603557905066E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>6.0088749421462813E-2</v>
+        <v>9.0880168261259886E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>6.480847827989257E-2</v>
+        <v>9.8018438851534689E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>5.9737967372157023E-2</v>
+        <v>9.0349634143461241E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>5.0476391797698347E-2</v>
+        <v>7.6342127668870857E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>5.6443729597487606E-2</v>
+        <v>8.5367322377331842E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>3.1818891809975207E-2</v>
+        <v>4.8123921190220277E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>5.3123853729012398E-2</v>
+        <v>8.0346234728838423E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>4.5051006873471078E-3</v>
+        <v>6.8136600019467605E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>5.3159505299404962E-2</v>
+        <v>8.040015531708912E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-5.1516012826103304E-2</v>
+        <v>-7.7914484139908341E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>3.8618287440371902E-3</v>
+        <v>5.8407547075511402E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>-7.1929350613760329E-3</v>
+        <v>-1.087882765016706E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>5.2947302905276862E-2</v>
+        <v>8.0079213552291542E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>-7.5352350589400832E-2</v>
+        <v>-0.11396533238550272</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>5.2801633774016532E-2</v>
+        <v>7.9858898846346241E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>-8.1991228393239676E-2</v>
+        <v>-0.12400618591778328</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>5.293353233307025E-2</v>
+        <v>8.0058386493462058E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>-8.493662800720661E-2</v>
+        <v>-0.12846090356611486</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>5.1678523546859506E-2</v>
+        <v>7.8160270610566795E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>-0.1001367097563719</v>
+        <v>-0.15144999886680083</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>4.8626512260880168E-2</v>
+        <v>7.3544310021012652E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>-0.11435375560420662</v>
+        <v>-0.17295231887294435</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>4.492567506415289E-2</v>
+        <v>6.79470441370605E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-0.11249109377468183</v>
+        <v>-0.17013516887213948</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>4.1132494991169423E-2</v>
+        <v>6.2210115900127254E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>-0.1661502601211281</v>
+        <v>-0.25129102771885625</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>3.1786629793239672E-2</v>
+        <v>4.807512707255928E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>-0.16477963896861569</v>
+        <v>-0.24921805595355809</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>1.4150463579371901E-2</v>
+        <v>2.140161882964416E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-0.15798636087000001</v>
+        <v>-0.23894368242121081</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>1.7370792749119835E-2</v>
+        <v>2.6272148831035742E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>-0.13811022241518595</v>
+        <v>-0.20888236770673949</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>1.8915645127202479E-2</v>
+        <v>2.8608633537585658E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>-0.11282697812309506</v>
+        <v>-0.17064317122522579</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>9.9486176817396698E-3</v>
+        <v>1.5046611180769621E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-9.2961245189628113E-3</v>
+        <v>-1.405975941578178E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2395,5 +2395,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>